--- a/Excel/Job.xlsx
+++ b/Excel/Job.xlsx
@@ -312,12 +312,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,725 +517,725 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="U26" activeCellId="0" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="0" t="s">
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="0" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="0" t="s">
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="0" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="0" t="s">
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="0" t="s">
+      <c r="X4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="0" t="s">
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" s="0" t="s">
+      <c r="W6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC7" s="0" t="s">
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="X8" s="0" t="n">
+      <c r="V8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="X8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AC8" s="1" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Excel/Job.xlsx
+++ b/Excel/Job.xlsx
@@ -223,7 +223,7 @@
     <t xml:space="preserve">23</t>
   </si>
   <si>
-    <t xml:space="preserve">東方谷早苗</t>
+    <t xml:space="preserve">東風谷早苗</t>
   </si>
   <si>
     <t xml:space="preserve">Sanae</t>
@@ -519,7 +519,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U26" activeCellId="0" sqref="U26"/>
+      <selection pane="topRight" activeCell="Q14" activeCellId="0" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Excel/Job.xlsx
+++ b/Excel/Job.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -145,73 +145,73 @@
     <t xml:space="preserve">Reimu</t>
   </si>
   <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霧雨魔理沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八意永琳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eirin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂魄妖夢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youmu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哆來咪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doremy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霧雨魔理沙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">八意永琳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eirin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魂魄妖夢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youmu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哆來咪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doremy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">藤原妹紅</t>
@@ -517,14 +517,15 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q14" activeCellId="0" sqref="Q14"/>
+      <selection pane="topRight" activeCell="AA14" activeCellId="0" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,32 +675,32 @@
       <c r="S2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
+      <c r="T2" s="1" t="n">
+        <v>-1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>43</v>
+      <c r="Y2" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>29</v>
@@ -710,10 +711,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
@@ -743,7 +744,7 @@
         <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>39</v>
@@ -758,37 +759,37 @@
         <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>36</v>
+      <c r="T3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>39</v>
@@ -799,10 +800,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
@@ -832,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>37</v>
@@ -847,37 +848,37 @@
         <v>29</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="W4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>37</v>
@@ -885,10 +886,10 @@
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -921,10 +922,10 @@
         <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>2</v>
@@ -936,40 +937,40 @@
         <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,10 +978,10 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
@@ -1010,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>36</v>
@@ -1025,37 +1026,37 @@
         <v>29</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="W6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>36</v>
@@ -1063,7 +1064,7 @@
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>64</v>
@@ -1099,10 +1100,10 @@
         <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>2</v>
@@ -1120,34 +1121,34 @@
         <v>29</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,19 +1210,19 @@
         <v>3</v>
       </c>
       <c r="T8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>13</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>24</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y8" s="1" t="n">
         <v>-1</v>
